--- a/biology/Médecine/Parainfluenza/Parainfluenza.xlsx
+++ b/biology/Médecine/Parainfluenza/Parainfluenza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Au sein de la famille des Paramyxoviridae, les virus parainfluenza (HPIV pour Human parainfluenza virus) sont des virus à ARN compris dans deux genres de la sous-famille des Paramyxovirinae :
 les Respirovirus pour les virus parainfluenza de type 1 et 3 (HPIV-1, -3)
@@ -512,7 +524,9 @@
           <t>Structure du virus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les HPIV sont des virus enveloppés. Leur génome est d'une taille d'environ 15 kilobases, constitué d'ARN simple brin de polarité négative. Le génome code six protéines principales.
 Les gènes NP, P et L codent respectivement la nucléoprotéine, la phosphoprotéine et la polymérase (L pour large polymerase complex). Ces trois protéines forment avec l'ARN viral la nucléocapside (ou holonucléocapside). La nucléoprotéine forme avec l'ARN un support pour la phosphoprotéine et la polymérase, permettant la transcription et éventuellement la réplication du génome.
@@ -546,7 +560,9 @@
           <t>D'un point de vue médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les infections à virus parainfluenza sont assez peu connues du grand public, elles constituent cependant, avec le virus respiratoire syncytial (RSV), une des causes principales d'hospitalisation des nourrissons. Ces infections peuvent également avoir des conséquences graves chez les personnes âgées et les patients immuno-déprimés. Les répercussions économiques dues à ces virus commencent seulement à être mesurées.
 Les infections dues à ces virus sont diverses mais touchent toutes le tractus respiratoire. Les laryngotrachéites, trachéites sont les infections les plus décrites. Des cas graves de bronchiolites et de pneumonies peuvent également exister.
